--- a/test_speeches/predictions/Speech_5_AI.xlsx
+++ b/test_speeches/predictions/Speech_5_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,251 +436,267 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hi, I'm Stefan and I'm here to explain to you the meaning of your next tasks.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Whoo!</t>
+          <t>Hi, I'm Stefan and I'm here to explain to you the meaning of your next tasks.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The matrices are quite tricky, aren't they?</t>
+          <t>Whoo!</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Right now, however, it's not just about solving matrices for some study.</t>
+          <t>The matrices are quite tricky, aren't they?</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>You can make a cool contribution today and support the food bank in its noble mission to save food while helping people in need.</t>
+          <t>Right now, however, it's not just about solving matrices for some study.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Together we can make a difference.</t>
+          <t>You can make a cool contribution today and support the food bank in its noble mission to save food while helping people in need.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -689,84 +705,90 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.64</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The food bank is a bit like Robin Hood, only legal.</t>
+          <t>Together we can make a difference.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>It takes leftover food from the food industry's treasuries and gives it to those who can't afford everyday groceries.</t>
+          <t>The food bank is a bit like Robin Hood, only legal.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -778,131 +800,143 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>At first glance, the matrices have nothing to do with the food bank, but the research team has raised heaven and earth to ensure that for every matrix you solve correctly, 20 cents will be donated to the food bank.</t>
+          <t>It takes leftover food from the food industry's treasuries and gives it to those who can't afford everyday groceries.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Imagine a money box like this one, into which you put a 20 cent piece for each matrix you solve correctly.</t>
+          <t>At first glance, the matrices have nothing to do with the food bank, but the research team has raised heaven and earth to ensure that for every matrix you solve correctly, 20 cents will be donated to the food bank.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Your performance will decide whether the money bank will only be half full or filled to the brim with coins.</t>
+          <t>Imagine a money box like this one, into which you put a 20 cent piece for each matrix you solve correctly.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>So do your best and solve as many matrices as possible!</t>
+          <t>Your performance will decide whether the money bank will only be half full or filled to the brim with coins.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -914,72 +948,78 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>With your effort you will help people in need, save food from the garbage can and thus fight poverty here.</t>
+          <t>So do your best and solve as many matrices as possible!</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.11</v>
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Why is this so important?</t>
+          <t>With your effort you will help people in need, save food from the garbage can and thus fight poverty here.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -988,106 +1028,115 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>On the sunny side of this affluent society, we produce mountains of food, but much of it ends up in the trash: perfectly good and edible - but overproduced, or too ugly and unsellable.</t>
+          <t>Why is this so important?</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>This is not only wasteful and a major driver of climate change.</t>
+          <t>On the sunny side of this affluent society, we produce mountains of food, but much of it ends up in the trash: perfectly good and edible - but overproduced, or too ugly and unsellable.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I find it simply despicable that we allow this to happen as a society.</t>
+          <t>This is not only wasteful and a major driver of climate change.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1096,297 +1145,321 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>In the shadow of our affluent society, many people sink into the swamp of poverty.</t>
+          <t>I find it simply despicable that we allow this to happen as a society.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Even a normal purchase at a discount store eats too big a hole in the small budget.</t>
+          <t>In the shadow of our affluent society, many people sink into the swamp of poverty.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Think about it for yourself: How must it feel to be poor in affluent Europe?</t>
+          <t>Even a normal purchase at a discount store eats too big a hole in the small budget.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Not having enough money for everyday things?</t>
+          <t>Think about it for yourself: How must it feel to be poor in affluent Europe?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>And to have nothing to offer your own children?</t>
+          <t>Not having enough money for everyday things?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The food bank reaches out to these people and stands up for them.</t>
+          <t>And to have nothing to offer your own children?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I was on site and saw with my own eyes what a great contribution the food bank makes.</t>
+          <t>The food bank reaches out to these people and stands up for them.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Countless volunteers invest their free time to do the right thing.</t>
+          <t>I was on site and saw with my own eyes what a great contribution the food bank makes.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1395,143 +1468,155 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>They themselves say about their commitment, "We'd rather help than go shopping."</t>
+          <t>Countless volunteers invest their free time to do the right thing.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And they do this not just once, but every week.</t>
+          <t>They themselves say about their commitment, "We'd rather help than go shopping."</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>For me, they are the heroes of everyday life.</t>
+          <t>And they do this not just once, but every week.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>When you have almost nothing, small things can mean the world.</t>
+          <t>For me, they are the heroes of everyday life.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1540,47 +1625,50 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For example, a bottle of yogurt dressing put a huge smile on the face of a girl - maybe four years old, no older.</t>
+          <t>When you have almost nothing, small things can mean the world.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1592,146 +1680,158 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>But one story particularly moved me: A food bank customer wanted to give a volunteer 5 euros for Christmas.</t>
+          <t>For example, a bottle of yogurt dressing put a huge smile on the face of a girl - maybe four years old, no older.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>She was incredibly embarrassed and did not want to accept the 5 euros at first.</t>
+          <t>But one story particularly moved me: A food bank customer wanted to give a volunteer 5 euros for Christmas.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>She argued, the line got longer.</t>
+          <t>She was incredibly embarrassed and did not want to accept the 5 euros at first.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Then the manager decided: "We can put the 5 euros in the coffee fund.” And that was a good thing because it just happened that fate struck on that very day.</t>
+          <t>She argued, the line got longer.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1740,106 +1840,115 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Only a little later, a completely distraught mother came to the registration desk and told about her hell ride.</t>
+          <t>Then the manager decided: "We can put the 5 euros in the coffee fund.” And that was a good thing because it just happened that fate struck on that very day.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Her account was blocked and therefore she had no money for the registration.</t>
+          <t>Only a little later, a completely distraught mother came to the registration desk and told about her hell ride.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A symbolic amount of 3 euros stood between her and Christmas dinner for her family.</t>
+          <t>Her account was blocked and therefore she had no money for the registration.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1851,16 +1960,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>One of the coworkers reached directly into the coffee fund and gave the woman the 5 euros she had been given.</t>
+          <t>A symbolic amount of 3 euros stood between her and Christmas dinner for her family.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1870,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1888,32 +2000,35 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>In this way, she turned this hopeless situation for the family into a moment of happiness.</t>
+          <t>One of the coworkers reached directly into the coffee fund and gave the woman the 5 euros she had been given.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1922,23 +2037,26 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5 euros may not save the world, but it can make the world a little better for one family.</t>
+          <t>In this way, she turned this hopeless situation for the family into a moment of happiness.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1947,75 +2065,81 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.41</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>To summarize: For each correctly solved matrix, you put a 20 cent coin in your food bank money box.</t>
+          <t>5 euros may not save the world, but it can make the world a little better for one family.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Now you may think: "Will my contribution make any difference at all?"</t>
+          <t>To summarize: For each correctly solved matrix, you put a 20 cent coin in your food bank money box.</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2024,106 +2148,115 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yes, I am convinced of it!</t>
+          <t>Now you may think: "Will my contribution make any difference at all?"</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Remember the 5 euros from the coffee box.</t>
+          <t>Yes, I am convinced of it!</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Every solved matrix makes a difference.</t>
+          <t>Remember the 5 euros from the coffee box.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2132,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2147,242 +2280,263 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And sure, it's online and you can't see your fellow campaigners, but you're not alone, hundreds of people are virtually by your side and you're fighting poverty together with the food bank and saving food from the trash.</t>
+          <t>Every solved matrix makes a difference.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>As you solve each new matrix, imagine putting a coin into your money box.</t>
+          <t>And sure, it's online and you can't see your fellow campaigners, but you're not alone, hundreds of people are virtually by your side and you're fighting poverty together with the food bank and saving food from the trash.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>I am convinced that you will manage to fill your food bank to the brim.</t>
+          <t>As you solve each new matrix, imagine putting a coin into your money box.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04</v>
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Think of all the people the food bank helps every day.</t>
+          <t>I am convinced that you will manage to fill your food bank to the brim.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>We have to support them!</t>
+          <t>Think of all the people the food bank helps every day.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>It is the right thing to do and worth going full throttle for it.</t>
+          <t>We have to support them!</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>You too can become an everyday hero for people in need today.</t>
+          <t>It is the right thing to do and worth going full throttle for it.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2391,35 +2545,38 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>So get involved, help people in need and save food from the trash.</t>
+          <t>You too can become an everyday hero for people in need today.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2428,59 +2585,105 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>So get involved, help people in need and save food from the trash.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>I am convinced that we can do it - together!</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.59</v>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_speeches/predictions/Speech_5_AI.xlsx
+++ b/test_speeches/predictions/Speech_5_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
